--- a/biology/Zoologie/Amphisbaena_occidentalis/Amphisbaena_occidentalis.xlsx
+++ b/biology/Zoologie/Amphisbaena_occidentalis/Amphisbaena_occidentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphisbaena occidentalis est une espèce d'amphisbènes de la famille des Amphisbaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphisbaena occidentalis est une espèce d'amphisbènes de la famille des Amphisbaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pérou[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pérou. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1875 : Report on the Reptiles brought by Professor James Orton from the middle and upper Amazon and western Peru. Journal of the Academy of Natural Sciences of Philadelphia, sér. 2, vol. 8, p. 159-183 (texte intégral).</t>
         </is>
